--- a/my_package/traj_excel_30/tested_robot_traj_4_.xlsx
+++ b/my_package/traj_excel_30/tested_robot_traj_4_.xlsx
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-2.561171122214548</v>
+        <v>2.561171122214548</v>
       </c>
       <c r="C1" t="n">
-        <v>1.571048036966904</v>
+        <v>-0.0002517101720076429</v>
       </c>
       <c r="D1" t="n">
-        <v>1.400073368420803</v>
+        <v>-1.400073368420803</v>
       </c>
       <c r="E1" t="n">
-        <v>1.399822193902046</v>
+        <v>0.1709741328928501</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.570796365408233</v>
+        <v>1.570796365408233</v>
       </c>
       <c r="G1" t="n">
         <v>0.9903747278261085</v>
@@ -449,19 +449,19 @@
         <v>0.2023157189900982</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.560984893344261</v>
+        <v>2.560984893344261</v>
       </c>
       <c r="C2" t="n">
-        <v>1.571032918879689</v>
+        <v>-0.0002365920847921259</v>
       </c>
       <c r="D2" t="n">
-        <v>1.400016922701087</v>
+        <v>-1.400016922701087</v>
       </c>
       <c r="E2" t="n">
-        <v>1.399780866204077</v>
+        <v>0.1710154605908198</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.570796365401672</v>
+        <v>1.570796365401672</v>
       </c>
       <c r="G2" t="n">
         <v>0.9901884989612726</v>
@@ -472,19 +472,19 @@
         <v>0.4046314379801964</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.559726251520413</v>
+        <v>2.559726251520413</v>
       </c>
       <c r="C3" t="n">
-        <v>1.570930742150394</v>
+        <v>-0.0001344153554978073</v>
       </c>
       <c r="D3" t="n">
-        <v>1.399635430059786</v>
+        <v>-1.399635430059786</v>
       </c>
       <c r="E3" t="n">
-        <v>1.399501549849593</v>
+        <v>0.1712947769453033</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.570796365357325</v>
+        <v>1.570796365357325</v>
       </c>
       <c r="G3" t="n">
         <v>0.9889298571742619</v>
@@ -495,19 +495,19 @@
         <v>0.6069471569702946</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.556443936971051</v>
+        <v>2.556443936971051</v>
       </c>
       <c r="C4" t="n">
-        <v>1.570664283370133</v>
+        <v>0.0001320434247639403</v>
       </c>
       <c r="D4" t="n">
-        <v>1.398640564941459</v>
+        <v>-1.398640564941459</v>
       </c>
       <c r="E4" t="n">
-        <v>1.398773142357625</v>
+        <v>0.172023184437272</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.570796365241677</v>
+        <v>1.570796365241677</v>
       </c>
       <c r="G4" t="n">
         <v>0.9856475427209649</v>
@@ -518,19 +518,19 @@
         <v>0.8092628759603927</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.55031383166614</v>
+        <v>2.55031383166614</v>
       </c>
       <c r="C5" t="n">
-        <v>1.570166640515416</v>
+        <v>0.0006296862794806502</v>
       </c>
       <c r="D5" t="n">
-        <v>1.396782538281364</v>
+        <v>-1.396782538281364</v>
       </c>
       <c r="E5" t="n">
-        <v>1.397412756397198</v>
+        <v>0.1733835703976982</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.570796365025691</v>
+        <v>1.570796365025691</v>
       </c>
       <c r="G5" t="n">
         <v>0.9795174375954664</v>
@@ -541,19 +541,19 @@
         <v>1.011578594950491</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.540633431415739</v>
+        <v>2.540633431415739</v>
       </c>
       <c r="C6" t="n">
-        <v>1.569380784192271</v>
+        <v>0.001415542602625764</v>
       </c>
       <c r="D6" t="n">
-        <v>1.393848422005871</v>
+        <v>-1.393848422005871</v>
       </c>
       <c r="E6" t="n">
-        <v>1.39526449304169</v>
+        <v>0.175531833753207</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.570796364684615</v>
+        <v>1.570796364684615</v>
       </c>
       <c r="G6" t="n">
         <v>0.9698370376283864</v>
@@ -564,19 +564,19 @@
         <v>1.213894313940589</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.52681631796818</v>
+        <v>2.52681631796818</v>
       </c>
       <c r="C7" t="n">
-        <v>1.568259108880351</v>
+        <v>0.002537217914545635</v>
       </c>
       <c r="D7" t="n">
-        <v>1.389660473532857</v>
+        <v>-1.389660473532857</v>
       </c>
       <c r="E7" t="n">
-        <v>1.392198215023168</v>
+        <v>0.178598111771729</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.570796364197788</v>
+        <v>1.570796364197788</v>
       </c>
       <c r="G7" t="n">
         <v>0.9560199245852193</v>
@@ -587,19 +587,19 @@
         <v>1.416210032930687</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.508386631108243</v>
+        <v>2.508386631108243</v>
       </c>
       <c r="C8" t="n">
-        <v>1.56676298417705</v>
+        <v>0.004033342617846537</v>
       </c>
       <c r="D8" t="n">
-        <v>1.38407446027212</v>
+        <v>-1.38407446027212</v>
       </c>
       <c r="E8" t="n">
-        <v>1.388108319986745</v>
+        <v>0.182688006808152</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.570796363548442</v>
+        <v>1.570796363548442</v>
       </c>
       <c r="G8" t="n">
         <v>0.9375902382646738</v>
@@ -610,19 +610,19 @@
         <v>1.618525751920785</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.484973540755338</v>
+        <v>2.484973540755338</v>
       </c>
       <c r="C9" t="n">
-        <v>1.564862306041615</v>
+        <v>0.005934020753281667</v>
       </c>
       <c r="D9" t="n">
-        <v>1.376977984125773</v>
+        <v>-1.376977984125773</v>
       </c>
       <c r="E9" t="n">
-        <v>1.382912513744923</v>
+        <v>0.1878838130499733</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.570796362723513</v>
+        <v>1.570796362723513</v>
       </c>
       <c r="G9" t="n">
         <v>0.9141771485970114</v>
@@ -633,19 +633,19 @@
         <v>1.820841470910884</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.456305719061678</v>
+        <v>2.456305719061678</v>
       </c>
       <c r="C10" t="n">
-        <v>1.562535048039258</v>
+        <v>0.008261278755638136</v>
       </c>
       <c r="D10" t="n">
-        <v>1.368288805988657</v>
+        <v>-1.368288805988657</v>
       </c>
       <c r="E10" t="n">
-        <v>1.376550583531945</v>
+        <v>0.1942457432629517</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.570796361713441</v>
+        <v>1.570796361713441</v>
       </c>
       <c r="G10" t="n">
         <v>0.8855093277423864</v>
@@ -656,19 +656,19 @@
         <v>2.023157189900982</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.422205812510458</v>
+        <v>2.422205812510458</v>
       </c>
       <c r="C11" t="n">
-        <v>1.559766812585273</v>
+        <v>0.011029514209624</v>
       </c>
       <c r="D11" t="n">
-        <v>1.35795317024874</v>
+        <v>-1.35795317024874</v>
       </c>
       <c r="E11" t="n">
-        <v>1.368983171258137</v>
+        <v>0.20181315553676</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.570796360511976</v>
+        <v>1.570796360511976</v>
       </c>
       <c r="G11" t="n">
         <v>0.8514094221891848</v>
@@ -679,19 +679,19 @@
         <v>2.22547290889108</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.382584914014032</v>
+        <v>2.382584914014032</v>
       </c>
       <c r="C12" t="n">
-        <v>1.556550382189141</v>
+        <v>0.01424594460575524</v>
       </c>
       <c r="D12" t="n">
-        <v>1.345944129287523</v>
+        <v>-1.345944129287523</v>
       </c>
       <c r="E12" t="n">
-        <v>1.36019054676426</v>
+        <v>0.2106057800306365</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.570796359115986</v>
+        <v>1.570796359115986</v>
       </c>
       <c r="G12" t="n">
         <v>0.8117885248523639</v>
@@ -702,19 +702,19 @@
         <v>2.427788627881178</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.337437035012095</v>
+        <v>2.337437035012095</v>
       </c>
       <c r="C13" t="n">
-        <v>1.552885270698654</v>
+        <v>0.01791105609624278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.332259867980444</v>
+        <v>-1.332259867980444</v>
       </c>
       <c r="E13" t="n">
-        <v>1.350171381075859</v>
+        <v>0.2206249457190377</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.570796357525261</v>
+        <v>1.570796357525261</v>
       </c>
       <c r="G13" t="n">
         <v>0.766640647171791</v>
@@ -725,19 +725,19 @@
         <v>2.630104346871276</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.286833577569851</v>
+        <v>2.286833577569851</v>
       </c>
       <c r="C14" t="n">
-        <v>1.548777274544017</v>
+        <v>0.02201905225087948</v>
       </c>
       <c r="D14" t="n">
-        <v>1.316922028197282</v>
+        <v>-1.316922028197282</v>
       </c>
       <c r="E14" t="n">
-        <v>1.338941519657606</v>
+        <v>0.2318548071372903</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.570796355742316</v>
+        <v>1.570796355742316</v>
       </c>
       <c r="G14" t="n">
         <v>0.7160371912105836</v>
@@ -748,19 +748,19 @@
         <v>2.832420065861375</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.230917806476201</v>
+        <v>2.230917806476201</v>
       </c>
       <c r="C15" t="n">
-        <v>1.544238023981969</v>
+        <v>0.02655830281292715</v>
       </c>
       <c r="D15" t="n">
-        <v>1.299974033302561</v>
+        <v>-1.299974033302561</v>
       </c>
       <c r="E15" t="n">
-        <v>1.326532755667653</v>
+        <v>0.2442635711272432</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.570796353772198</v>
+        <v>1.570796353772198</v>
       </c>
       <c r="G15" t="n">
         <v>0.6601214217534481</v>
@@ -771,19 +771,19 @@
         <v>3.034735784851473</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.169899321341914</v>
+        <v>2.169899321341914</v>
       </c>
       <c r="C16" t="n">
-        <v>1.539284534339893</v>
+        <v>0.03151179245500355</v>
       </c>
       <c r="D16" t="n">
-        <v>1.281479412655955</v>
+        <v>-1.281479412655955</v>
       </c>
       <c r="E16" t="n">
-        <v>1.312991603211977</v>
+        <v>0.2578047235829195</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.570796351622293</v>
+        <v>1.570796351622293</v>
       </c>
       <c r="G16" t="n">
         <v>0.599102938405019</v>
@@ -794,19 +794,19 @@
         <v>3.237051503841571</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.104048528697805</v>
+        <v>2.104048528697805</v>
       </c>
       <c r="C17" t="n">
-        <v>1.533938757259927</v>
+        <v>0.03685756953496942</v>
       </c>
       <c r="D17" t="n">
-        <v>1.261520126112692</v>
+        <v>-1.261520126112692</v>
       </c>
       <c r="E17" t="n">
-        <v>1.298378070598727</v>
+        <v>0.2724182561961692</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.570796349302128</v>
+        <v>1.570796349302128</v>
       </c>
       <c r="G17" t="n">
         <v>0.5332521476881986</v>
@@ -817,19 +817,19 @@
         <v>3.439367222831669</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.033691114092918</v>
+        <v>2.033691114092918</v>
       </c>
       <c r="C18" t="n">
-        <v>1.528227131943081</v>
+        <v>0.04256919485181537</v>
       </c>
       <c r="D18" t="n">
-        <v>1.240194888523958</v>
+        <v>-1.240194888523958</v>
       </c>
       <c r="E18" t="n">
-        <v>1.282764433592576</v>
+        <v>0.2880318932023206</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.570796346823178</v>
+        <v>1.570796346823178</v>
       </c>
       <c r="G18" t="n">
         <v>0.4628947351424968</v>
@@ -840,19 +840,19 @@
         <v>3.641682941821767</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.959202514192695</v>
+        <v>1.959202514192695</v>
       </c>
       <c r="C19" t="n">
-        <v>1.522180136393347</v>
+        <v>0.04861619040154909</v>
       </c>
       <c r="D19" t="n">
-        <v>1.217617494237299</v>
+        <v>-1.217617494237299</v>
       </c>
       <c r="E19" t="n">
-        <v>1.266234008669064</v>
+        <v>0.304562318125833</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.570796344198672</v>
+        <v>1.570796344198672</v>
       </c>
       <c r="G19" t="n">
         <v>0.3884061374223684</v>
@@ -863,19 +863,19 @@
         <v>3.843998660811865</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.88100238887716</v>
+        <v>1.88100238887716</v>
       </c>
       <c r="C20" t="n">
-        <v>1.515831838661814</v>
+        <v>0.05496448813308218</v>
       </c>
       <c r="D20" t="n">
-        <v>1.193915141597031</v>
+        <v>-1.193915141597031</v>
       </c>
       <c r="E20" t="n">
-        <v>1.248879926268948</v>
+        <v>0.3219164005259488</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.570796341443395</v>
+        <v>1.570796341443395</v>
       </c>
       <c r="G20" t="n">
         <v>0.3102060143955548</v>
@@ -886,19 +886,19 @@
         <v>4.046314379801964</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.799549093339094</v>
+        <v>1.799549093339094</v>
       </c>
       <c r="C21" t="n">
-        <v>1.509219448090779</v>
+        <v>0.0615768787041172</v>
       </c>
       <c r="D21" t="n">
-        <v>1.169226757444637</v>
+        <v>-1.169226757444637</v>
       </c>
       <c r="E21" t="n">
-        <v>1.230803904052551</v>
+        <v>0.3399924227423451</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.570796338573497</v>
+        <v>1.570796338573497</v>
       </c>
       <c r="G21" t="n">
         <v>0.228752721241422</v>
@@ -909,19 +909,19 @@
         <v>4.248630098792062</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.715334150182212</v>
+        <v>1.715334150182212</v>
       </c>
       <c r="C22" t="n">
-        <v>1.502382866557862</v>
+        <v>0.06841346023703467</v>
       </c>
       <c r="D22" t="n">
-        <v>1.143701321619178</v>
+        <v>-1.143701321619178</v>
       </c>
       <c r="E22" t="n">
-        <v>1.21211502015411</v>
+        <v>0.3586813066407862</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.570796335606295</v>
+        <v>1.570796335606295</v>
       </c>
       <c r="G22" t="n">
         <v>0.1445377805493004</v>
@@ -932,19 +932,19 @@
         <v>4.45094581778216</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.628876721519342</v>
+        <v>1.628876721519342</v>
       </c>
       <c r="C23" t="n">
-        <v>1.495364239720116</v>
+        <v>0.07543208707478015</v>
       </c>
       <c r="D23" t="n">
-        <v>1.117496191457691</v>
+        <v>-1.117496191457691</v>
       </c>
       <c r="E23" t="n">
-        <v>1.19292848643612</v>
+        <v>0.3778678403587762</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.570796332560083</v>
+        <v>1.570796332560083</v>
       </c>
       <c r="G23" t="n">
         <v>0.05808035441682358</v>
@@ -955,19 +955,19 @@
         <v>4.653261536772258</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.540718081070604</v>
+        <v>1.540718081070604</v>
       </c>
       <c r="C24" t="n">
-        <v>1.488207508258145</v>
+        <v>0.08258881853675118</v>
       </c>
       <c r="D24" t="n">
-        <v>1.090775426295598</v>
+        <v>-1.090775426295598</v>
       </c>
       <c r="E24" t="n">
-        <v>1.173364421743686</v>
+        <v>0.3974319050512104</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.570796329453931</v>
+        <v>1.570796329453931</v>
       </c>
       <c r="G24" t="n">
         <v>-0.03007828345173269</v>
@@ -978,19 +978,19 @@
         <v>4.855577255762356</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.451416086261582</v>
+        <v>1.451416086261582</v>
       </c>
       <c r="C25" t="n">
-        <v>1.480957959120212</v>
+        <v>0.08983836767468421</v>
       </c>
       <c r="D25" t="n">
-        <v>1.063708111967108</v>
+        <v>-1.063708111967108</v>
       </c>
       <c r="E25" t="n">
-        <v>1.153546625158869</v>
+        <v>0.4172497016360274</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.570796326307494</v>
+        <v>1.570796326307494</v>
       </c>
       <c r="G25" t="n">
         <v>-0.1193802756471091</v>
@@ -1001,19 +1001,19 @@
         <v>5.057892974752455</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.361539650321506</v>
+        <v>1.361539650321506</v>
       </c>
       <c r="C26" t="n">
-        <v>1.473661776766355</v>
+        <v>0.09713455002854179</v>
       </c>
       <c r="D26" t="n">
-        <v>1.036466685305622</v>
+        <v>-1.036466685305622</v>
       </c>
       <c r="E26" t="n">
-        <v>1.133601349255035</v>
+        <v>0.437194977539862</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.570796323140818</v>
+        <v>1.570796323140818</v>
       </c>
       <c r="G26" t="n">
         <v>-0.2092567089567264</v>
@@ -1024,19 +1024,19 @@
         <v>5.260208693742553</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.271663214381431</v>
+        <v>1.271663214381431</v>
       </c>
       <c r="C27" t="n">
-        <v>1.466365594412497</v>
+        <v>0.1044307323823993</v>
       </c>
       <c r="D27" t="n">
-        <v>1.009225258644137</v>
+        <v>-1.009225258644137</v>
       </c>
       <c r="E27" t="n">
-        <v>1.1136560733512</v>
+        <v>0.4571402534436965</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.570796319974141</v>
+        <v>1.570796319974141</v>
       </c>
       <c r="G27" t="n">
         <v>-0.2991331422663436</v>
@@ -1047,19 +1047,19 @@
         <v>5.462524412732651</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.182361219572409</v>
+        <v>1.182361219572409</v>
       </c>
       <c r="C28" t="n">
-        <v>1.459116045274564</v>
+        <v>0.1116802815203324</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9821579443156467</v>
+        <v>-0.9821579443156467</v>
       </c>
       <c r="E28" t="n">
-        <v>1.093838276766383</v>
+        <v>0.4769580500285135</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.570796316827705</v>
+        <v>1.570796316827705</v>
       </c>
       <c r="G28" t="n">
         <v>-0.38843513446172</v>
@@ -1070,19 +1070,19 @@
         <v>5.664840131722749</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.094202579123671</v>
+        <v>1.094202579123671</v>
       </c>
       <c r="C29" t="n">
-        <v>1.451959313812593</v>
+        <v>0.1188370129823034</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9554371791535541</v>
+        <v>-0.9554371791535541</v>
       </c>
       <c r="E29" t="n">
-        <v>1.074274212073949</v>
+        <v>0.4965221147209476</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.570796313721553</v>
+        <v>1.570796313721553</v>
       </c>
       <c r="G29" t="n">
         <v>-0.4765937723302759</v>
@@ -1093,19 +1093,19 @@
         <v>5.867155850712847</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.007745150460801</v>
+        <v>1.007745150460801</v>
       </c>
       <c r="C30" t="n">
-        <v>1.444940686974848</v>
+        <v>0.1258556398200489</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9292320489920673</v>
+        <v>-0.9292320489920673</v>
       </c>
       <c r="E30" t="n">
-        <v>1.055087678355959</v>
+        <v>0.5157086484389377</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.57079631067534</v>
+        <v>1.57079631067534</v>
       </c>
       <c r="G30" t="n">
         <v>-0.563051198462753</v>
@@ -1116,19 +1116,19 @@
         <v>6.069471569702945</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.9235302073039198</v>
+        <v>0.9235302073039198</v>
       </c>
       <c r="C31" t="n">
-        <v>1.43810410544193</v>
+        <v>0.1326922213529663</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9037066131666081</v>
+        <v>-0.9037066131666081</v>
       </c>
       <c r="E31" t="n">
-        <v>1.036398794457518</v>
+        <v>0.5343975323373789</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.570796307708139</v>
+        <v>1.570796307708139</v>
       </c>
       <c r="G31" t="n">
         <v>-0.6472661391548745</v>
@@ -1139,19 +1139,19 @@
         <v>6.271787288693043</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.8420769117658526</v>
+        <v>0.8420769117658526</v>
       </c>
       <c r="C32" t="n">
-        <v>1.431491714870895</v>
+        <v>0.1393046119240014</v>
       </c>
       <c r="D32" t="n">
-        <v>0.879018229014214</v>
+        <v>-0.879018229014214</v>
       </c>
       <c r="E32" t="n">
-        <v>1.018322772241121</v>
+        <v>0.5524735545537751</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.570796304838241</v>
+        <v>1.570796304838241</v>
       </c>
       <c r="G32" t="n">
         <v>-0.7287194323090079</v>
@@ -1162,19 +1162,19 @@
         <v>6.474103007683142</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.7638767864503162</v>
+        <v>0.7638767864503162</v>
       </c>
       <c r="C33" t="n">
-        <v>1.425143417139362</v>
+        <v>0.1456529096555346</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8553158763739451</v>
+        <v>-0.8553158763739451</v>
       </c>
       <c r="E33" t="n">
-        <v>1.000968689841005</v>
+        <v>0.5698276369538913</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.570796302082964</v>
+        <v>1.570796302082964</v>
       </c>
       <c r="G33" t="n">
         <v>-0.806919555335822</v>
@@ -1185,19 +1185,19 @@
         <v>6.67641872667324</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6893881865500946</v>
+        <v>0.6893881865500946</v>
       </c>
       <c r="C34" t="n">
-        <v>1.419096421589628</v>
+        <v>0.1516999052052682</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8327384820872871</v>
+        <v>-0.8327384820872871</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9844382649174931</v>
+        <v>0.5863580618774035</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.570796299458457</v>
+        <v>1.570796299458457</v>
       </c>
       <c r="G34" t="n">
         <v>-0.8814081530559493</v>
@@ -1208,19 +1208,19 @@
         <v>6.878734445663338</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.6190307719452068</v>
+        <v>0.6190307719452068</v>
       </c>
       <c r="C35" t="n">
-        <v>1.413384796272782</v>
+        <v>0.1574115305221142</v>
       </c>
       <c r="D35" t="n">
-        <v>0.811413244498552</v>
+        <v>-0.811413244498552</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9688246279113417</v>
+        <v>0.6019716988835548</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.570796296979508</v>
+        <v>1.570796296979508</v>
       </c>
       <c r="G35" t="n">
         <v>-0.9517655656016516</v>
@@ -1231,19 +1231,19 @@
         <v>7.081050164653436</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.5531799793011003</v>
+        <v>0.5531799793011003</v>
       </c>
       <c r="C36" t="n">
-        <v>1.408039019192817</v>
+        <v>0.16275730760208</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7914539579552897</v>
+        <v>-0.7914539579552897</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9542110952980924</v>
+        <v>0.6165852314968041</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.570796294659343</v>
+        <v>1.570796294659343</v>
       </c>
       <c r="G36" t="n">
         <v>-1.017616356318471</v>
@@ -1254,19 +1254,19 @@
         <v>7.283365883643534</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.4921614941668118</v>
+        <v>0.4921614941668118</v>
       </c>
       <c r="C37" t="n">
-        <v>1.40308552955074</v>
+        <v>0.1677107972441565</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7729593373086834</v>
+        <v>-0.7729593373086834</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9406699428424157</v>
+        <v>0.6301263839524809</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.570796292509438</v>
+        <v>1.570796292509438</v>
       </c>
       <c r="G37" t="n">
         <v>-1.078634839666901</v>
@@ -1277,19 +1277,19 @@
         <v>7.485681602633632</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.4362457230731622</v>
+        <v>0.4362457230731622</v>
       </c>
       <c r="C38" t="n">
-        <v>1.398546278988692</v>
+        <v>0.1722500478062041</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7560113424139627</v>
+        <v>-0.7560113424139627</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9282611788524628</v>
+        <v>0.6425351479424337</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.57079629053932</v>
+        <v>1.57079629053932</v>
       </c>
       <c r="G38" t="n">
         <v>-1.134550609124036</v>
@@ -1300,19 +1300,19 @@
         <v>7.687997321623731</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.3856422656309171</v>
+        <v>0.3856422656309171</v>
       </c>
       <c r="C39" t="n">
-        <v>1.394438282834056</v>
+        <v>0.176358043960841</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7406735026308001</v>
+        <v>-0.7406735026308001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.91703131743421</v>
+        <v>0.6537650093606866</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.570796288756375</v>
+        <v>1.570796288756375</v>
       </c>
       <c r="G39" t="n">
         <v>-1.185154065085245</v>
@@ -1323,19 +1323,19 @@
         <v>7.890313040613829</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.3404943866289809</v>
+        <v>0.3404943866289809</v>
       </c>
       <c r="C40" t="n">
-        <v>1.390773171343568</v>
+        <v>0.1800231554513284</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7269892413237214</v>
+        <v>-0.7269892413237214</v>
       </c>
       <c r="E40" t="n">
-        <v>0.907012151745809</v>
+        <v>0.6637841750490876</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.570796287165649</v>
+        <v>1.570796287165649</v>
       </c>
       <c r="G40" t="n">
         <v>-1.230301942765815</v>
@@ -1346,19 +1346,19 @@
         <v>8.092628759603928</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.3008734881325537</v>
+        <v>0.3008734881325537</v>
       </c>
       <c r="C41" t="n">
-        <v>1.387556740947437</v>
+        <v>0.1832395858474598</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7149802003625042</v>
+        <v>-0.7149802003625042</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8982195272519319</v>
+        <v>0.6725767995429647</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.57079628576966</v>
+        <v>1.57079628576966</v>
       </c>
       <c r="G41" t="n">
         <v>-1.269922840102639</v>
@@ -1369,19 +1369,19 @@
         <v>8.294944478594026</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.2667735815813357</v>
+        <v>0.2667735815813357</v>
       </c>
       <c r="C42" t="n">
-        <v>1.384788505493451</v>
+        <v>0.1860078213014454</v>
       </c>
       <c r="D42" t="n">
-        <v>0.704644564622588</v>
+        <v>-0.704644564622588</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8906521149781247</v>
+        <v>0.6801442118167719</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.570796284568195</v>
+        <v>1.570796284568195</v>
       </c>
       <c r="G42" t="n">
         <v>-1.304022745655838</v>
@@ -1392,19 +1392,19 @@
         <v>8.497260197584124</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.2381057598876755</v>
+        <v>0.2381057598876755</v>
       </c>
       <c r="C43" t="n">
-        <v>1.382461247491095</v>
+        <v>0.1883350793038019</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6959553864854719</v>
+        <v>-0.6959553864854719</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8842901847651463</v>
+        <v>0.6865061420297502</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.570796283558123</v>
+        <v>1.570796283558123</v>
       </c>
       <c r="G43" t="n">
         <v>-1.332690566510461</v>
@@ -1415,19 +1415,19 @@
         <v>8.699575916574222</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.2146926695347706</v>
+        <v>0.2146926695347706</v>
       </c>
       <c r="C44" t="n">
-        <v>1.38056056935566</v>
+        <v>0.190235757439237</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6888589103391249</v>
+        <v>-0.6888589103391249</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8790943785233247</v>
+        <v>0.6917019482715718</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.570796282733194</v>
+        <v>1.570796282733194</v>
       </c>
       <c r="G44" t="n">
         <v>-1.356103656178124</v>
@@ -1438,19 +1438,19 @@
         <v>8.90189163556432</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.196262982674833</v>
+        <v>0.196262982674833</v>
       </c>
       <c r="C45" t="n">
-        <v>1.379064444652359</v>
+        <v>0.1917318821425378</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6832728970783881</v>
+        <v>-0.6832728970783881</v>
       </c>
       <c r="E45" t="n">
-        <v>0.875004483486902</v>
+        <v>0.6957918433079946</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.570796282083848</v>
+        <v>1.570796282083848</v>
       </c>
       <c r="G45" t="n">
         <v>-1.374533342498669</v>
@@ -1461,19 +1461,19 @@
         <v>9.104207354554418</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1824458692272697</v>
+        <v>0.1824458692272697</v>
       </c>
       <c r="C46" t="n">
-        <v>1.377942769340438</v>
+        <v>0.1928535574544581</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6790849486053729</v>
+        <v>-0.6790849486053729</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8719382054683787</v>
+        <v>0.6988581213265178</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.57079628159702</v>
+        <v>1.57079628159702</v>
       </c>
       <c r="G46" t="n">
         <v>-1.388350455541841</v>
@@ -1484,19 +1484,19 @@
         <v>9.306523073544517</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1727654689768716</v>
+        <v>0.1727654689768716</v>
       </c>
       <c r="C47" t="n">
-        <v>1.377156913017293</v>
+        <v>0.1936394137776031</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6761508323298799</v>
+        <v>-0.6761508323298799</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8697899421128705</v>
+        <v>0.701006384682026</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.570796281255945</v>
+        <v>1.570796281255945</v>
       </c>
       <c r="G47" t="n">
         <v>-1.398030855508917</v>
@@ -1507,19 +1507,19 @@
         <v>9.508838792534615</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.1666353636719609</v>
+        <v>0.1666353636719609</v>
       </c>
       <c r="C48" t="n">
-        <v>1.376659270162577</v>
+        <v>0.1941370566323198</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6742928056697861</v>
+        <v>-0.6742928056697861</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8684295561524444</v>
+        <v>0.7023667706424521</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.570796281039958</v>
+        <v>1.570796281039958</v>
       </c>
       <c r="G48" t="n">
         <v>-1.404160960634415</v>
@@ -1530,19 +1530,19 @@
         <v>9.711154511524713</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.1633530491225974</v>
+        <v>0.1633530491225974</v>
       </c>
       <c r="C49" t="n">
-        <v>1.376392811382315</v>
+        <v>0.1944035154125815</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6732979405514584</v>
+        <v>-0.6732979405514584</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8677011486604757</v>
+        <v>0.7030951781344209</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.570796280924311</v>
+        <v>1.570796280924311</v>
       </c>
       <c r="G49" t="n">
         <v>-1.407443275087712</v>
@@ -1553,19 +1553,19 @@
         <v>9.913470230514811</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.1620944072987469</v>
+        <v>0.1620944072987469</v>
       </c>
       <c r="C50" t="n">
-        <v>1.376290634653021</v>
+        <v>0.194505692141876</v>
       </c>
       <c r="D50" t="n">
-        <v>0.672916447910158</v>
+        <v>-0.672916447910158</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8674218323059917</v>
+        <v>0.7033744944889049</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.570796280879964</v>
+        <v>1.570796280879964</v>
       </c>
       <c r="G50" t="n">
         <v>-1.408701916874726</v>
@@ -1576,19 +1576,19 @@
         <v>10.11578594950491</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.1619081784284635</v>
+        <v>0.1619081784284635</v>
       </c>
       <c r="C51" t="n">
-        <v>1.376275516565805</v>
+        <v>0.1945208102290914</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6728600021904421</v>
+        <v>-0.6728600021904421</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8673805046080224</v>
+        <v>0.7034158221868742</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.570796280873402</v>
+        <v>1.570796280873402</v>
       </c>
       <c r="G51" t="n">
         <v>-1.40888814573956</v>
